--- a/Modulo5/src/out/info_estados/Alabama.xlsx
+++ b/Modulo5/src/out/info_estados/Alabama.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="95">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>A</t>
@@ -728,14 +734,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>545</v>
       </c>
       <c r="M2">
         <v>1001</v>
@@ -772,14 +778,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2388</v>
       </c>
       <c r="M3">
         <v>1001</v>
@@ -816,14 +822,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1765</v>
       </c>
       <c r="M4">
         <v>1001</v>
@@ -860,14 +866,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5388</v>
       </c>
       <c r="M5">
         <v>1001</v>
@@ -904,14 +910,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="M6">
         <v>1001</v>
@@ -948,14 +954,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>1786</v>
       </c>
       <c r="M7">
         <v>1001</v>
@@ -992,14 +998,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>2483</v>
       </c>
       <c r="M8">
         <v>1001</v>
@@ -1036,14 +1042,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2695</v>
       </c>
       <c r="M9">
         <v>1003</v>
@@ -1080,14 +1086,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5291</v>
       </c>
       <c r="M10">
         <v>1003</v>
@@ -1124,14 +1130,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>4222</v>
       </c>
       <c r="M11">
         <v>1003</v>
@@ -1168,14 +1174,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>23619</v>
       </c>
       <c r="M12">
         <v>1003</v>
@@ -1212,14 +1218,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2988</v>
       </c>
       <c r="M13">
         <v>1003</v>
@@ -1256,14 +1262,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>9704</v>
       </c>
       <c r="M14">
         <v>1003</v>
@@ -1300,14 +1306,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>8572</v>
       </c>
       <c r="M15">
         <v>1003</v>
@@ -1344,14 +1350,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="M16">
         <v>1005</v>
@@ -1388,14 +1394,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2568</v>
       </c>
       <c r="M17">
         <v>1005</v>
@@ -1432,14 +1438,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="M18">
         <v>1005</v>
@@ -1476,14 +1482,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1711</v>
       </c>
       <c r="M19">
         <v>1005</v>
@@ -1520,14 +1526,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M20">
         <v>1005</v>
@@ -1564,14 +1570,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="M21">
         <v>1005</v>
@@ -1608,14 +1614,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>610</v>
       </c>
       <c r="M22">
         <v>1005</v>
@@ -1652,14 +1658,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="M23">
         <v>1007</v>
@@ -1696,14 +1702,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>92</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>943</v>
       </c>
       <c r="M24">
         <v>1007</v>
@@ -1740,14 +1746,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="M25">
         <v>1007</v>
@@ -1784,14 +1790,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1960</v>
       </c>
       <c r="M26">
         <v>1007</v>
@@ -1828,14 +1834,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M27">
         <v>1007</v>
@@ -1872,14 +1878,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>93</v>
       </c>
       <c r="K28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>445</v>
       </c>
       <c r="M28">
         <v>1007</v>
@@ -1916,14 +1922,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>93</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1012</v>
       </c>
       <c r="M29">
         <v>1007</v>
@@ -1960,14 +1966,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>396</v>
       </c>
       <c r="M30">
         <v>1009</v>
@@ -2004,14 +2010,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>92</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="M31">
         <v>1009</v>
@@ -2048,14 +2054,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>93</v>
       </c>
       <c r="K32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>1524</v>
       </c>
       <c r="M32">
         <v>1009</v>
@@ -2092,14 +2098,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>7391</v>
       </c>
       <c r="M33">
         <v>1009</v>
@@ -2136,14 +2142,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>93</v>
       </c>
       <c r="K34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="M34">
         <v>1009</v>
@@ -2180,14 +2186,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>93</v>
       </c>
       <c r="K35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>1844</v>
       </c>
       <c r="M35">
         <v>1009</v>
@@ -2224,14 +2230,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>93</v>
       </c>
       <c r="K36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3699</v>
       </c>
       <c r="M36">
         <v>1009</v>
@@ -2268,14 +2274,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>92</v>
       </c>
       <c r="K37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M37">
         <v>1011</v>
@@ -2312,14 +2318,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>92</v>
       </c>
       <c r="K38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>2452</v>
       </c>
       <c r="M38">
         <v>1011</v>
@@ -2356,14 +2362,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M39">
         <v>1011</v>
@@ -2400,14 +2406,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>93</v>
       </c>
       <c r="K40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="M40">
         <v>1011</v>
@@ -2444,14 +2450,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>93</v>
       </c>
       <c r="K41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M41">
         <v>1011</v>
@@ -2488,14 +2494,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>93</v>
       </c>
       <c r="K42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M42">
         <v>1011</v>
@@ -2532,14 +2538,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>93</v>
       </c>
       <c r="K43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M43">
         <v>1011</v>
@@ -2576,14 +2582,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>92</v>
       </c>
       <c r="K44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M44">
         <v>1013</v>
@@ -2620,14 +2626,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>92</v>
       </c>
       <c r="K45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>2197</v>
       </c>
       <c r="M45">
         <v>1013</v>
@@ -2664,14 +2670,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>93</v>
       </c>
       <c r="K46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="M46">
         <v>1013</v>
@@ -2708,14 +2714,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>93</v>
       </c>
       <c r="K47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>1721</v>
       </c>
       <c r="M47">
         <v>1013</v>
@@ -2752,14 +2758,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>93</v>
       </c>
       <c r="K48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M48">
         <v>1013</v>
@@ -2796,14 +2802,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>93</v>
       </c>
       <c r="K49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="M49">
         <v>1013</v>
@@ -2840,14 +2846,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>93</v>
       </c>
       <c r="K50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="M50">
         <v>1013</v>
@@ -2884,14 +2890,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>92</v>
       </c>
       <c r="K51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>1426</v>
       </c>
       <c r="M51">
         <v>1015</v>
@@ -2928,14 +2934,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>92</v>
       </c>
       <c r="K52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>5012</v>
       </c>
       <c r="M52">
         <v>1015</v>
@@ -2972,14 +2978,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>93</v>
       </c>
       <c r="K53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>2351</v>
       </c>
       <c r="M53">
         <v>1015</v>
@@ -3016,14 +3022,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>93</v>
       </c>
       <c r="K54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>8961</v>
       </c>
       <c r="M54">
         <v>1015</v>
@@ -3060,14 +3066,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>93</v>
       </c>
       <c r="K55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M55">
         <v>1015</v>
@@ -3104,14 +3110,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>93</v>
       </c>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>3252</v>
       </c>
       <c r="M56">
         <v>1015</v>
@@ -3148,14 +3154,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>93</v>
       </c>
       <c r="K57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>3860</v>
       </c>
       <c r="M57">
         <v>1015</v>
@@ -3192,14 +3198,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>92</v>
       </c>
       <c r="K58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="M58">
         <v>1017</v>
@@ -3236,14 +3242,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>92</v>
       </c>
       <c r="K59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>2900</v>
       </c>
       <c r="M59">
         <v>1017</v>
@@ -3280,14 +3286,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>93</v>
       </c>
       <c r="K60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M60">
         <v>1017</v>
@@ -3324,14 +3330,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>93</v>
       </c>
       <c r="K61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2170</v>
       </c>
       <c r="M61">
         <v>1017</v>
@@ -3368,14 +3374,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>93</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="M62">
         <v>1017</v>
@@ -3412,14 +3418,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>93</v>
       </c>
       <c r="K63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M63">
         <v>1017</v>
@@ -3456,14 +3462,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>93</v>
       </c>
       <c r="K64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>915</v>
       </c>
       <c r="M64">
         <v>1017</v>
@@ -3500,14 +3506,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>92</v>
       </c>
       <c r="K65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="M65">
         <v>1019</v>
@@ -3544,14 +3550,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>92</v>
       </c>
       <c r="K66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M66">
         <v>1019</v>
@@ -3588,14 +3594,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>93</v>
       </c>
       <c r="K67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="M67">
         <v>1019</v>
@@ -3632,14 +3638,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>93</v>
       </c>
       <c r="K68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>2778</v>
       </c>
       <c r="M68">
         <v>1019</v>
@@ -3676,14 +3682,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>93</v>
       </c>
       <c r="K69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M69">
         <v>1019</v>
@@ -3720,14 +3726,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>93</v>
       </c>
       <c r="K70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>811</v>
       </c>
       <c r="M70">
         <v>1019</v>
@@ -3764,14 +3770,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>922</v>
       </c>
       <c r="M71">
         <v>1019</v>
@@ -3808,14 +3814,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>92</v>
       </c>
       <c r="K72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="M72">
         <v>1021</v>
@@ -3852,14 +3858,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>92</v>
       </c>
       <c r="K73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>861</v>
       </c>
       <c r="M73">
         <v>1021</v>
@@ -3896,14 +3902,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>93</v>
       </c>
       <c r="K74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>1150</v>
       </c>
       <c r="M74">
         <v>1021</v>
@@ -3940,14 +3946,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>5274</v>
       </c>
       <c r="M75">
         <v>1021</v>
@@ -3984,14 +3990,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>93</v>
       </c>
       <c r="K76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="M76">
         <v>1021</v>
@@ -4028,14 +4034,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>93</v>
       </c>
       <c r="K77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1437</v>
       </c>
       <c r="M77">
         <v>1021</v>
@@ -4072,14 +4078,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>93</v>
       </c>
       <c r="K78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>2329</v>
       </c>
       <c r="M78">
         <v>1021</v>
@@ -4116,14 +4122,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="M79">
         <v>1023</v>
@@ -4160,14 +4166,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1773</v>
       </c>
       <c r="M80">
         <v>1023</v>
@@ -4204,14 +4210,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="M81">
         <v>1023</v>
@@ -4248,14 +4254,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>93</v>
       </c>
       <c r="K82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1071</v>
       </c>
       <c r="M82">
         <v>1023</v>
@@ -4292,14 +4298,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>93</v>
       </c>
       <c r="K83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M83">
         <v>1023</v>
@@ -4336,14 +4342,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>93</v>
       </c>
       <c r="K84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="M84">
         <v>1023</v>
@@ -4380,14 +4386,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>93</v>
       </c>
       <c r="K85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>452</v>
       </c>
       <c r="M85">
         <v>1023</v>
@@ -4424,14 +4430,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>92</v>
       </c>
       <c r="K86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M86">
         <v>1025</v>
@@ -4468,14 +4474,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>92</v>
       </c>
       <c r="K87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3149</v>
       </c>
       <c r="M87">
         <v>1025</v>
@@ -4512,14 +4518,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>93</v>
       </c>
       <c r="K88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="M88">
         <v>1025</v>
@@ -4556,14 +4562,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>93</v>
       </c>
       <c r="K89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>2309</v>
       </c>
       <c r="M89">
         <v>1025</v>
@@ -4600,14 +4606,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>93</v>
       </c>
       <c r="K90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M90">
         <v>1025</v>
@@ -4644,14 +4650,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>93</v>
       </c>
       <c r="K91" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>806</v>
       </c>
       <c r="M91">
         <v>1025</v>
@@ -4688,14 +4694,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>93</v>
       </c>
       <c r="K92" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>887</v>
       </c>
       <c r="M92">
         <v>1025</v>
@@ -4732,14 +4738,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="M93">
         <v>1027</v>
@@ -4776,14 +4782,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>92</v>
       </c>
       <c r="K94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>808</v>
       </c>
       <c r="M94">
         <v>1027</v>
@@ -4820,14 +4826,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>93</v>
       </c>
       <c r="K95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="M95">
         <v>1027</v>
@@ -4864,14 +4870,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>93</v>
       </c>
       <c r="K96" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>1921</v>
       </c>
       <c r="M96">
         <v>1027</v>
@@ -4908,14 +4914,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>93</v>
       </c>
       <c r="K97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M97">
         <v>1027</v>
@@ -4952,14 +4958,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>93</v>
       </c>
       <c r="K98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>506</v>
       </c>
       <c r="M98">
         <v>1027</v>
@@ -4996,14 +5002,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>93</v>
       </c>
       <c r="K99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="M99">
         <v>1027</v>
@@ -5040,14 +5046,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>92</v>
       </c>
       <c r="K100" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M100">
         <v>1029</v>
@@ -5084,14 +5090,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>92</v>
       </c>
       <c r="K101" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="M101">
         <v>1029</v>
@@ -5128,14 +5134,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>93</v>
       </c>
       <c r="K102" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="M102">
         <v>1029</v>
@@ -5172,14 +5178,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>93</v>
       </c>
       <c r="K103" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>2121</v>
       </c>
       <c r="M103">
         <v>1029</v>
@@ -5216,14 +5222,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>93</v>
       </c>
       <c r="K104" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M104">
         <v>1029</v>
@@ -5260,14 +5266,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>93</v>
       </c>
       <c r="K105" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="M105">
         <v>1029</v>
@@ -5304,14 +5310,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>93</v>
       </c>
       <c r="K106" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>929</v>
       </c>
       <c r="M106">
         <v>1029</v>
@@ -5348,14 +5354,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>92</v>
       </c>
       <c r="K107" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="M107">
         <v>1031</v>
@@ -5392,14 +5398,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>92</v>
       </c>
       <c r="K108" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>1494</v>
       </c>
       <c r="M108">
         <v>1031</v>
@@ -5436,14 +5442,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>93</v>
       </c>
       <c r="K109" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>1369</v>
       </c>
       <c r="M109">
         <v>1031</v>
@@ -5480,14 +5486,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>93</v>
       </c>
       <c r="K110" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>4305</v>
       </c>
       <c r="M110">
         <v>1031</v>
@@ -5524,14 +5530,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>93</v>
       </c>
       <c r="K111" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="M111">
         <v>1031</v>
@@ -5568,14 +5574,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>93</v>
       </c>
       <c r="K112" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>1609</v>
       </c>
       <c r="M112">
         <v>1031</v>
@@ -5612,14 +5618,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>93</v>
       </c>
       <c r="K113" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>2422</v>
       </c>
       <c r="M113">
         <v>1031</v>
@@ -5656,14 +5662,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>92</v>
       </c>
       <c r="K114" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="M114">
         <v>1033</v>
@@ -5700,14 +5706,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>92</v>
       </c>
       <c r="K115" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3880</v>
       </c>
       <c r="M115">
         <v>1033</v>
@@ -5744,14 +5750,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>93</v>
       </c>
       <c r="K116" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>885</v>
       </c>
       <c r="M116">
         <v>1033</v>
@@ -5788,14 +5794,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>93</v>
       </c>
       <c r="K117" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3859</v>
       </c>
       <c r="M117">
         <v>1033</v>
@@ -5832,14 +5838,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>93</v>
       </c>
       <c r="K118" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="M118">
         <v>1033</v>
@@ -5876,14 +5882,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>93</v>
       </c>
       <c r="K119" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>1444</v>
       </c>
       <c r="M119">
         <v>1033</v>
@@ -5920,14 +5926,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>93</v>
       </c>
       <c r="K120" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>1602</v>
       </c>
       <c r="M120">
         <v>1033</v>
@@ -5964,14 +5970,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>92</v>
       </c>
       <c r="K121" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>545</v>
       </c>
       <c r="M121">
         <v>1035</v>
@@ -6008,14 +6014,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>92</v>
       </c>
       <c r="K122" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2032</v>
       </c>
       <c r="M122">
         <v>1035</v>
@@ -6052,14 +6058,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>93</v>
       </c>
       <c r="K123" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M123">
         <v>1035</v>
@@ -6096,14 +6102,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>93</v>
       </c>
       <c r="K124" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>769</v>
       </c>
       <c r="M124">
         <v>1035</v>
@@ -6140,14 +6146,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>93</v>
       </c>
       <c r="K125" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M125">
         <v>1035</v>
@@ -6184,14 +6190,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>93</v>
       </c>
       <c r="K126" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="M126">
         <v>1035</v>
@@ -6228,14 +6234,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>93</v>
       </c>
       <c r="K127" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M127">
         <v>1035</v>
@@ -6272,14 +6278,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>92</v>
       </c>
       <c r="K128" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M128">
         <v>1037</v>
@@ -6316,14 +6322,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>92</v>
       </c>
       <c r="K129" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>1013</v>
       </c>
       <c r="M129">
         <v>1037</v>
@@ -6360,14 +6366,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>93</v>
       </c>
       <c r="K130" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="M130">
         <v>1037</v>
@@ -6404,14 +6410,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>93</v>
       </c>
       <c r="K131" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>1234</v>
       </c>
       <c r="M131">
         <v>1037</v>
@@ -6448,14 +6454,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>93</v>
       </c>
       <c r="K132" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="M132">
         <v>1037</v>
@@ -6492,14 +6498,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>93</v>
       </c>
       <c r="K133" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="M133">
         <v>1037</v>
@@ -6536,14 +6542,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>93</v>
       </c>
       <c r="K134" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="M134">
         <v>1037</v>
@@ -6580,14 +6586,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>92</v>
       </c>
       <c r="K135" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M135">
         <v>1039</v>
@@ -6624,14 +6630,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>92</v>
       </c>
       <c r="K136" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>738</v>
       </c>
       <c r="M136">
         <v>1039</v>
@@ -6668,14 +6674,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>93</v>
       </c>
       <c r="K137" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>1276</v>
       </c>
       <c r="M137">
         <v>1039</v>
@@ -6712,14 +6718,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>93</v>
       </c>
       <c r="K138" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>4609</v>
       </c>
       <c r="M138">
         <v>1039</v>
@@ -6756,14 +6762,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>93</v>
       </c>
       <c r="K139" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="M139">
         <v>1039</v>
@@ -6800,14 +6806,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>93</v>
       </c>
       <c r="K140" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>1278</v>
       </c>
       <c r="M140">
         <v>1039</v>
@@ -6844,14 +6850,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>93</v>
       </c>
       <c r="K141" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>1774</v>
       </c>
       <c r="M141">
         <v>1039</v>
@@ -6888,14 +6894,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>92</v>
       </c>
       <c r="K142" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M142">
         <v>1041</v>
@@ -6932,14 +6938,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>92</v>
       </c>
       <c r="K143" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>909</v>
       </c>
       <c r="M143">
         <v>1041</v>
@@ -6976,14 +6982,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>93</v>
       </c>
       <c r="K144" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="M144">
         <v>1041</v>
@@ -7020,14 +7026,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>93</v>
       </c>
       <c r="K145" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>1497</v>
       </c>
       <c r="M145">
         <v>1041</v>
@@ -7064,14 +7070,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>93</v>
       </c>
       <c r="K146" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M146">
         <v>1041</v>
@@ -7108,14 +7114,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>93</v>
       </c>
       <c r="K147" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="M147">
         <v>1041</v>
@@ -7152,14 +7158,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>93</v>
       </c>
       <c r="K148" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>603</v>
       </c>
       <c r="M148">
         <v>1041</v>
@@ -7196,14 +7202,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>92</v>
       </c>
       <c r="K149" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>724</v>
       </c>
       <c r="M149">
         <v>1043</v>
@@ -7240,14 +7246,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>92</v>
       </c>
       <c r="K150" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>1276</v>
       </c>
       <c r="M150">
         <v>1043</v>
@@ -7284,14 +7290,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>93</v>
       </c>
       <c r="K151" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>2302</v>
       </c>
       <c r="M151">
         <v>1043</v>
@@ -7328,14 +7334,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>93</v>
       </c>
       <c r="K152" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>10619</v>
       </c>
       <c r="M152">
         <v>1043</v>
@@ -7372,14 +7378,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>93</v>
       </c>
       <c r="K153" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>559</v>
       </c>
       <c r="M153">
         <v>1043</v>
@@ -7416,14 +7422,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>93</v>
       </c>
       <c r="K154" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>2833</v>
       </c>
       <c r="M154">
         <v>1043</v>
@@ -7460,14 +7466,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>93</v>
       </c>
       <c r="K155" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>4249</v>
       </c>
       <c r="M155">
         <v>1043</v>
@@ -7504,14 +7510,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>92</v>
       </c>
       <c r="K156" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="M156">
         <v>1045</v>
@@ -7548,14 +7554,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>92</v>
       </c>
       <c r="K157" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>1545</v>
       </c>
       <c r="M157">
         <v>1045</v>
@@ -7592,14 +7598,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>93</v>
       </c>
       <c r="K158" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>1151</v>
       </c>
       <c r="M158">
         <v>1045</v>
@@ -7636,14 +7642,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>93</v>
       </c>
       <c r="K159" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>4152</v>
       </c>
       <c r="M159">
         <v>1045</v>
@@ -7680,14 +7686,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>93</v>
       </c>
       <c r="K160" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="M160">
         <v>1045</v>
@@ -7724,14 +7730,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>93</v>
       </c>
       <c r="K161" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>1195</v>
       </c>
       <c r="M161">
         <v>1045</v>
@@ -7768,14 +7774,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>93</v>
       </c>
       <c r="K162" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>2009</v>
       </c>
       <c r="M162">
         <v>1045</v>
@@ -7812,14 +7818,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>92</v>
       </c>
       <c r="K163" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1775</v>
       </c>
       <c r="M163">
         <v>1047</v>
@@ -7856,14 +7862,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>92</v>
       </c>
       <c r="K164" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>8578</v>
       </c>
       <c r="M164">
         <v>1047</v>
@@ -7900,14 +7906,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>93</v>
       </c>
       <c r="K165" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M165">
         <v>1047</v>
@@ -7944,14 +7950,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>93</v>
       </c>
       <c r="K166" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="M166">
         <v>1047</v>
@@ -7988,14 +7994,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>93</v>
       </c>
       <c r="K167" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M167">
         <v>1047</v>
@@ -8032,14 +8038,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>93</v>
       </c>
       <c r="K168" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M168">
         <v>1047</v>
@@ -8076,14 +8082,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>93</v>
       </c>
       <c r="K169" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M169">
         <v>1047</v>
@@ -8120,14 +8126,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>92</v>
       </c>
       <c r="K170" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>668</v>
       </c>
       <c r="M170">
         <v>1049</v>
@@ -8164,14 +8170,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>92</v>
       </c>
       <c r="K171" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>1298</v>
       </c>
       <c r="M171">
         <v>1049</v>
@@ -8208,14 +8214,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>93</v>
       </c>
       <c r="K172" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>1286</v>
       </c>
       <c r="M172">
         <v>1049</v>
@@ -8252,14 +8258,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>93</v>
       </c>
       <c r="K173" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>6248</v>
       </c>
       <c r="M173">
         <v>1049</v>
@@ -8296,14 +8302,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>93</v>
       </c>
       <c r="K174" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="M174">
         <v>1049</v>
@@ -8340,14 +8346,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>93</v>
       </c>
       <c r="K175" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>2838</v>
       </c>
       <c r="M175">
         <v>1049</v>
@@ -8384,14 +8390,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>93</v>
       </c>
       <c r="K176" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>2154</v>
       </c>
       <c r="M176">
         <v>1049</v>
@@ -8428,14 +8434,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>92</v>
       </c>
       <c r="K177" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>695</v>
       </c>
       <c r="M177">
         <v>1051</v>
@@ -8472,14 +8478,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>92</v>
       </c>
       <c r="K178" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3020</v>
       </c>
       <c r="M178">
         <v>1051</v>
@@ -8516,14 +8522,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>93</v>
       </c>
       <c r="K179" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>2631</v>
       </c>
       <c r="M179">
         <v>1051</v>
@@ -8560,14 +8566,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>93</v>
       </c>
       <c r="K180" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>8526</v>
       </c>
       <c r="M180">
         <v>1051</v>
@@ -8604,14 +8610,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>93</v>
       </c>
       <c r="K181" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>635</v>
       </c>
       <c r="M181">
         <v>1051</v>
@@ -8648,14 +8654,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>93</v>
       </c>
       <c r="K182" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>2388</v>
       </c>
       <c r="M182">
         <v>1051</v>
@@ -8692,14 +8698,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>93</v>
       </c>
       <c r="K183" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3237</v>
       </c>
       <c r="M183">
         <v>1051</v>
@@ -8736,14 +8742,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>92</v>
       </c>
       <c r="K184" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M184">
         <v>1053</v>
@@ -8780,14 +8786,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>92</v>
       </c>
       <c r="K185" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>2028</v>
       </c>
       <c r="M185">
         <v>1053</v>
@@ -8824,14 +8830,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>93</v>
       </c>
       <c r="K186" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="M186">
         <v>1053</v>
@@ -8868,14 +8874,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>93</v>
       </c>
       <c r="K187" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>2818</v>
       </c>
       <c r="M187">
         <v>1053</v>
@@ -8912,14 +8918,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>93</v>
       </c>
       <c r="K188" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="M188">
         <v>1053</v>
@@ -8956,14 +8962,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>93</v>
       </c>
       <c r="K189" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>1029</v>
       </c>
       <c r="M189">
         <v>1053</v>
@@ -9000,14 +9006,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>93</v>
       </c>
       <c r="K190" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>979</v>
       </c>
       <c r="M190">
         <v>1053</v>
@@ -9044,14 +9050,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>92</v>
       </c>
       <c r="K191" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>1290</v>
       </c>
       <c r="M191">
         <v>1055</v>
@@ -9088,14 +9094,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>92</v>
       </c>
       <c r="K192" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>4263</v>
       </c>
       <c r="M192">
         <v>1055</v>
@@ -9132,14 +9138,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>93</v>
       </c>
       <c r="K193" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>2099</v>
       </c>
       <c r="M193">
         <v>1055</v>
@@ -9176,14 +9182,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>93</v>
       </c>
       <c r="K194" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>8658</v>
       </c>
       <c r="M194">
         <v>1055</v>
@@ -9220,14 +9226,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>93</v>
       </c>
       <c r="K195" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>617</v>
       </c>
       <c r="M195">
         <v>1055</v>
@@ -9264,14 +9270,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>93</v>
       </c>
       <c r="K196" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3156</v>
       </c>
       <c r="M196">
         <v>1055</v>
@@ -9308,14 +9314,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>93</v>
       </c>
       <c r="K197" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>3892</v>
       </c>
       <c r="M197">
         <v>1055</v>
@@ -9352,14 +9358,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>92</v>
       </c>
       <c r="K198" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="M198">
         <v>1057</v>
@@ -9396,14 +9402,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>92</v>
       </c>
       <c r="K199" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="M199">
         <v>1057</v>
@@ -9440,14 +9446,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>93</v>
       </c>
       <c r="K200" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>489</v>
       </c>
       <c r="M200">
         <v>1057</v>
@@ -9484,14 +9490,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>93</v>
       </c>
       <c r="K201" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>2480</v>
       </c>
       <c r="M201">
         <v>1057</v>
@@ -9528,14 +9534,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>93</v>
       </c>
       <c r="K202" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="M202">
         <v>1057</v>
@@ -9572,14 +9578,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>93</v>
       </c>
       <c r="K203" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>664</v>
       </c>
       <c r="M203">
         <v>1057</v>
@@ -9616,14 +9622,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>93</v>
       </c>
       <c r="K204" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>1044</v>
       </c>
       <c r="M204">
         <v>1057</v>
@@ -9660,14 +9666,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>92</v>
       </c>
       <c r="K205" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>768</v>
       </c>
       <c r="M205">
         <v>1059</v>
@@ -9704,14 +9710,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>92</v>
       </c>
       <c r="K206" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>1234</v>
       </c>
       <c r="M206">
         <v>1059</v>
@@ -9748,14 +9754,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>93</v>
       </c>
       <c r="K207" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="M207">
         <v>1059</v>
@@ -9792,14 +9798,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>93</v>
       </c>
       <c r="K208" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>2156</v>
       </c>
       <c r="M208">
         <v>1059</v>
@@ -9836,14 +9842,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>93</v>
       </c>
       <c r="K209" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M209">
         <v>1059</v>
@@ -9880,14 +9886,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>93</v>
       </c>
       <c r="K210" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="M210">
         <v>1059</v>
@@ -9924,14 +9930,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>93</v>
       </c>
       <c r="K211" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>893</v>
       </c>
       <c r="M211">
         <v>1059</v>
@@ -9968,14 +9974,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>92</v>
       </c>
       <c r="K212" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="M212">
         <v>1061</v>
@@ -10012,14 +10018,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>92</v>
       </c>
       <c r="K213" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>545</v>
       </c>
       <c r="M213">
         <v>1061</v>
@@ -10056,14 +10062,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>93</v>
       </c>
       <c r="K214" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>593</v>
       </c>
       <c r="M214">
         <v>1061</v>
@@ -10100,14 +10106,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>93</v>
       </c>
       <c r="K215" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>3107</v>
       </c>
       <c r="M215">
         <v>1061</v>
@@ -10144,14 +10150,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>93</v>
       </c>
       <c r="K216" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="M216">
         <v>1061</v>
@@ -10188,14 +10194,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>93</v>
       </c>
       <c r="K217" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>830</v>
       </c>
       <c r="M217">
         <v>1061</v>
@@ -10232,14 +10238,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>93</v>
       </c>
       <c r="K218" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>1518</v>
       </c>
       <c r="M218">
         <v>1061</v>
@@ -10276,14 +10282,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>92</v>
       </c>
       <c r="K219" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M219">
         <v>1063</v>
@@ -10320,14 +10326,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>92</v>
       </c>
       <c r="K220" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>2715</v>
       </c>
       <c r="M220">
         <v>1063</v>
@@ -10364,14 +10370,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>93</v>
       </c>
       <c r="K221" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M221">
         <v>1063</v>
@@ -10408,14 +10414,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>93</v>
       </c>
       <c r="K222" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M222">
         <v>1063</v>
@@ -10452,14 +10458,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>93</v>
       </c>
       <c r="K223" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M223">
         <v>1063</v>
@@ -10496,14 +10502,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>93</v>
       </c>
       <c r="K224" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M224">
         <v>1063</v>
@@ -10540,14 +10546,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>93</v>
       </c>
       <c r="K225" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M225">
         <v>1063</v>
@@ -10584,14 +10590,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>92</v>
       </c>
       <c r="K226" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="M226">
         <v>1065</v>
@@ -10628,14 +10634,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>92</v>
       </c>
       <c r="K227" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>2427</v>
       </c>
       <c r="M227">
         <v>1065</v>
@@ -10672,14 +10678,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>93</v>
       </c>
       <c r="K228" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M228">
         <v>1065</v>
@@ -10716,14 +10722,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>93</v>
       </c>
       <c r="K229" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>591</v>
       </c>
       <c r="M229">
         <v>1065</v>
@@ -10760,14 +10766,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>93</v>
       </c>
       <c r="K230" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M230">
         <v>1065</v>
@@ -10804,14 +10810,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>93</v>
       </c>
       <c r="K231" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M231">
         <v>1065</v>
@@ -10848,14 +10854,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>93</v>
       </c>
       <c r="K232" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="M232">
         <v>1065</v>
@@ -10892,14 +10898,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>92</v>
       </c>
       <c r="K233" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M233">
         <v>1067</v>
@@ -10936,14 +10942,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>92</v>
       </c>
       <c r="K234" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>1171</v>
       </c>
       <c r="M234">
         <v>1067</v>
@@ -10980,14 +10986,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>93</v>
       </c>
       <c r="K235" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="M235">
         <v>1067</v>
@@ -11024,14 +11030,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>93</v>
       </c>
       <c r="K236" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>1779</v>
       </c>
       <c r="M236">
         <v>1067</v>
@@ -11068,14 +11074,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>93</v>
       </c>
       <c r="K237" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M237">
         <v>1067</v>
@@ -11112,14 +11118,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>93</v>
       </c>
       <c r="K238" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="M238">
         <v>1067</v>
@@ -11156,14 +11162,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>93</v>
       </c>
       <c r="K239" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>848</v>
       </c>
       <c r="M239">
         <v>1067</v>
@@ -11200,14 +11206,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>92</v>
       </c>
       <c r="K240" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="M240">
         <v>1069</v>
@@ -11244,14 +11250,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>92</v>
       </c>
       <c r="K241" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3045</v>
       </c>
       <c r="M241">
         <v>1069</v>
@@ -11288,14 +11294,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>93</v>
       </c>
       <c r="K242" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>2311</v>
       </c>
       <c r="M242">
         <v>1069</v>
@@ -11332,14 +11338,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>93</v>
       </c>
       <c r="K243" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>8172</v>
       </c>
       <c r="M243">
         <v>1069</v>
@@ -11376,14 +11382,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>93</v>
       </c>
       <c r="K244" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="M244">
         <v>1069</v>
@@ -11420,14 +11426,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>93</v>
       </c>
       <c r="K245" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3684</v>
       </c>
       <c r="M245">
         <v>1069</v>
@@ -11464,14 +11470,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>93</v>
       </c>
       <c r="K246" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>4559</v>
       </c>
       <c r="M246">
         <v>1069</v>
@@ -11508,14 +11514,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>92</v>
       </c>
       <c r="K247" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>511</v>
       </c>
       <c r="M247">
         <v>1071</v>
@@ -11552,14 +11558,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>92</v>
       </c>
       <c r="K248" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>1328</v>
       </c>
       <c r="M248">
         <v>1071</v>
@@ -11596,14 +11602,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>93</v>
       </c>
       <c r="K249" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>1186</v>
       </c>
       <c r="M249">
         <v>1071</v>
@@ -11640,14 +11646,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>93</v>
       </c>
       <c r="K250" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>5464</v>
       </c>
       <c r="M250">
         <v>1071</v>
@@ -11684,14 +11690,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>93</v>
       </c>
       <c r="K251" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="M251">
         <v>1071</v>
@@ -11728,14 +11734,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>93</v>
       </c>
       <c r="K252" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>1848</v>
       </c>
       <c r="M252">
         <v>1071</v>
@@ -11772,14 +11778,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>93</v>
       </c>
       <c r="K253" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>1792</v>
       </c>
       <c r="M253">
         <v>1071</v>
@@ -11816,14 +11822,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>92</v>
       </c>
       <c r="K254" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>14320</v>
       </c>
       <c r="M254">
         <v>1073</v>
@@ -11860,14 +11866,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>92</v>
       </c>
       <c r="K255" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>67358</v>
       </c>
       <c r="M255">
         <v>1073</v>
@@ -11904,14 +11910,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>93</v>
       </c>
       <c r="K256" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>8369</v>
       </c>
       <c r="M256">
         <v>1073</v>
@@ -11948,14 +11954,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>93</v>
       </c>
       <c r="K257" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>32854</v>
       </c>
       <c r="M257">
         <v>1073</v>
@@ -11992,14 +11998,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>93</v>
       </c>
       <c r="K258" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>5712</v>
       </c>
       <c r="M258">
         <v>1073</v>
@@ -12036,14 +12042,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>93</v>
       </c>
       <c r="K259" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>23133</v>
       </c>
       <c r="M259">
         <v>1073</v>
@@ -12080,14 +12086,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>93</v>
       </c>
       <c r="K260" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>22356</v>
       </c>
       <c r="M260">
         <v>1073</v>
@@ -12124,14 +12130,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>92</v>
       </c>
       <c r="K261" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M261">
         <v>1075</v>
@@ -12168,14 +12174,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>92</v>
       </c>
       <c r="K262" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="M262">
         <v>1075</v>
@@ -12212,14 +12218,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>93</v>
       </c>
       <c r="K263" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M263">
         <v>1075</v>
@@ -12256,14 +12262,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>93</v>
       </c>
       <c r="K264" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>1811</v>
       </c>
       <c r="M264">
         <v>1075</v>
@@ -12300,14 +12306,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>93</v>
       </c>
       <c r="K265" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="M265">
         <v>1075</v>
@@ -12344,14 +12350,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>93</v>
       </c>
       <c r="K266" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="M266">
         <v>1075</v>
@@ -12388,14 +12394,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>93</v>
       </c>
       <c r="K267" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>693</v>
       </c>
       <c r="M267">
         <v>1075</v>
@@ -12432,14 +12438,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>92</v>
       </c>
       <c r="K268" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>1746</v>
       </c>
       <c r="M268">
         <v>1077</v>
@@ -12476,14 +12482,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>92</v>
       </c>
       <c r="K269" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>3677</v>
       </c>
       <c r="M269">
         <v>1077</v>
@@ -12520,14 +12526,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>93</v>
       </c>
       <c r="K270" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>2152</v>
       </c>
       <c r="M270">
         <v>1077</v>
@@ -12564,14 +12570,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>93</v>
       </c>
       <c r="K271" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>7503</v>
       </c>
       <c r="M271">
         <v>1077</v>
@@ -12608,14 +12614,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>93</v>
       </c>
       <c r="K272" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>984</v>
       </c>
       <c r="M272">
         <v>1077</v>
@@ -12652,14 +12658,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>93</v>
       </c>
       <c r="K273" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>3321</v>
       </c>
       <c r="M273">
         <v>1077</v>
@@ -12696,14 +12702,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>93</v>
       </c>
       <c r="K274" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>3266</v>
       </c>
       <c r="M274">
         <v>1077</v>
@@ -12740,14 +12746,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>92</v>
       </c>
       <c r="K275" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="M275">
         <v>1079</v>
@@ -12784,14 +12790,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>92</v>
       </c>
       <c r="K276" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>2048</v>
       </c>
       <c r="M276">
         <v>1079</v>
@@ -12828,14 +12834,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>93</v>
       </c>
       <c r="K277" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>734</v>
       </c>
       <c r="M277">
         <v>1079</v>
@@ -12872,14 +12878,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>93</v>
       </c>
       <c r="K278" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>3605</v>
       </c>
       <c r="M278">
         <v>1079</v>
@@ -12916,14 +12922,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>93</v>
       </c>
       <c r="K279" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="M279">
         <v>1079</v>
@@ -12960,14 +12966,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>93</v>
       </c>
       <c r="K280" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>926</v>
       </c>
       <c r="M280">
         <v>1079</v>
@@ -13004,14 +13010,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>93</v>
       </c>
       <c r="K281" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>1205</v>
       </c>
       <c r="M281">
         <v>1079</v>
@@ -13048,14 +13054,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>92</v>
       </c>
       <c r="K282" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>2465</v>
       </c>
       <c r="M282">
         <v>1081</v>
@@ -13092,14 +13098,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>92</v>
       </c>
       <c r="K283" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>7138</v>
       </c>
       <c r="M283">
         <v>1081</v>
@@ -13136,14 +13142,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>93</v>
       </c>
       <c r="K284" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>2461</v>
       </c>
       <c r="M284">
         <v>1081</v>
@@ -13180,14 +13186,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>93</v>
       </c>
       <c r="K285" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>6935</v>
       </c>
       <c r="M285">
         <v>1081</v>
@@ -13224,14 +13230,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>93</v>
       </c>
       <c r="K286" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>1502</v>
       </c>
       <c r="M286">
         <v>1081</v>
@@ -13268,14 +13274,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>93</v>
       </c>
       <c r="K287" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>4735</v>
       </c>
       <c r="M287">
         <v>1081</v>
@@ -13312,14 +13318,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>93</v>
       </c>
       <c r="K288" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>4881</v>
       </c>
       <c r="M288">
         <v>1081</v>
@@ -13356,14 +13362,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>92</v>
       </c>
       <c r="K289" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="M289">
         <v>1083</v>
@@ -13400,14 +13406,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>92</v>
       </c>
       <c r="K290" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>3200</v>
       </c>
       <c r="M290">
         <v>1083</v>
@@ -13444,14 +13450,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>93</v>
       </c>
       <c r="K291" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>2062</v>
       </c>
       <c r="M291">
         <v>1083</v>
@@ -13488,14 +13494,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>93</v>
       </c>
       <c r="K292" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>8199</v>
       </c>
       <c r="M292">
         <v>1083</v>
@@ -13532,14 +13538,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>93</v>
       </c>
       <c r="K293" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>747</v>
       </c>
       <c r="M293">
         <v>1083</v>
@@ -13576,14 +13582,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>93</v>
       </c>
       <c r="K294" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>3603</v>
       </c>
       <c r="M294">
         <v>1083</v>
@@ -13620,14 +13626,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>93</v>
       </c>
       <c r="K295" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>4083</v>
       </c>
       <c r="M295">
         <v>1083</v>
@@ -13664,14 +13670,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>92</v>
       </c>
       <c r="K296" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="M296">
         <v>1085</v>
@@ -13708,14 +13714,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>92</v>
       </c>
       <c r="K297" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>3783</v>
       </c>
       <c r="M297">
         <v>1085</v>
@@ -13752,14 +13758,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>93</v>
       </c>
       <c r="K298" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M298">
         <v>1085</v>
@@ -13796,14 +13802,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>93</v>
       </c>
       <c r="K299" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="M299">
         <v>1085</v>
@@ -13840,14 +13846,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>93</v>
       </c>
       <c r="K300" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M300">
         <v>1085</v>
@@ -13884,14 +13890,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>93</v>
       </c>
       <c r="K301" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M301">
         <v>1085</v>
@@ -13928,14 +13934,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>93</v>
       </c>
       <c r="K302" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M302">
         <v>1085</v>
@@ -13972,14 +13978,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>92</v>
       </c>
       <c r="K303" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="M303">
         <v>1087</v>
@@ -14016,14 +14022,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>92</v>
       </c>
       <c r="K304" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>4294</v>
       </c>
       <c r="M304">
         <v>1087</v>
@@ -14060,14 +14066,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>93</v>
       </c>
       <c r="K305" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M305">
         <v>1087</v>
@@ -14104,14 +14110,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>93</v>
       </c>
       <c r="K306" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="M306">
         <v>1087</v>
@@ -14148,14 +14154,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>93</v>
       </c>
       <c r="K307" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M307">
         <v>1087</v>
@@ -14192,14 +14198,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>93</v>
       </c>
       <c r="K308" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M308">
         <v>1087</v>
@@ -14236,14 +14242,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>93</v>
       </c>
       <c r="K309" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M309">
         <v>1087</v>
@@ -14280,14 +14286,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>92</v>
       </c>
       <c r="K310" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>8787</v>
       </c>
       <c r="M310">
         <v>1089</v>
@@ -14324,14 +14330,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>92</v>
       </c>
       <c r="K311" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>19996</v>
       </c>
       <c r="M311">
         <v>1089</v>
@@ -14368,14 +14374,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>93</v>
       </c>
       <c r="K312" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>6294</v>
       </c>
       <c r="M312">
         <v>1089</v>
@@ -14412,14 +14418,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>93</v>
       </c>
       <c r="K313" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>23792</v>
       </c>
       <c r="M313">
         <v>1089</v>
@@ -14456,14 +14462,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>93</v>
       </c>
       <c r="K314" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>3920</v>
       </c>
       <c r="M314">
         <v>1089</v>
@@ -14500,14 +14506,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>93</v>
       </c>
       <c r="K315" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>17117</v>
       </c>
       <c r="M315">
         <v>1089</v>
@@ -14544,14 +14550,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>93</v>
       </c>
       <c r="K316" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>13623</v>
       </c>
       <c r="M316">
         <v>1089</v>
@@ -14588,14 +14594,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>92</v>
       </c>
       <c r="K317" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>1093</v>
       </c>
       <c r="M317">
         <v>1091</v>
@@ -14632,14 +14638,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>92</v>
       </c>
       <c r="K318" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>3591</v>
       </c>
       <c r="M318">
         <v>1091</v>
@@ -14676,14 +14682,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>93</v>
       </c>
       <c r="K319" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M319">
         <v>1091</v>
@@ -14720,14 +14726,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>93</v>
       </c>
       <c r="K320" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>581</v>
       </c>
       <c r="M320">
         <v>1091</v>
@@ -14764,14 +14770,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>93</v>
       </c>
       <c r="K321" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M321">
         <v>1091</v>
@@ -14808,14 +14814,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>93</v>
       </c>
       <c r="K322" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M322">
         <v>1091</v>
@@ -14852,14 +14858,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>93</v>
       </c>
       <c r="K323" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="M323">
         <v>1091</v>
@@ -14896,14 +14902,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>92</v>
       </c>
       <c r="K324" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M324">
         <v>1093</v>
@@ -14940,14 +14946,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>92</v>
       </c>
       <c r="K325" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="M325">
         <v>1093</v>
@@ -14984,14 +14990,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>93</v>
       </c>
       <c r="K326" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>590</v>
       </c>
       <c r="M326">
         <v>1093</v>
@@ -15028,14 +15034,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>93</v>
       </c>
       <c r="K327" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>3504</v>
       </c>
       <c r="M327">
         <v>1093</v>
@@ -15072,14 +15078,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>93</v>
       </c>
       <c r="K328" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M328">
         <v>1093</v>
@@ -15116,14 +15122,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>93</v>
       </c>
       <c r="K329" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>922</v>
       </c>
       <c r="M329">
         <v>1093</v>
@@ -15160,14 +15166,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>93</v>
       </c>
       <c r="K330" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>1269</v>
       </c>
       <c r="M330">
         <v>1093</v>
@@ -15204,14 +15210,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>92</v>
       </c>
       <c r="K331" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>822</v>
       </c>
       <c r="M331">
         <v>1095</v>
@@ -15248,14 +15254,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>92</v>
       </c>
       <c r="K332" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>1495</v>
       </c>
       <c r="M332">
         <v>1095</v>
@@ -15292,14 +15298,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>93</v>
       </c>
       <c r="K333" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>1814</v>
       </c>
       <c r="M333">
         <v>1095</v>
@@ -15336,14 +15342,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>93</v>
       </c>
       <c r="K334" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>9116</v>
       </c>
       <c r="M334">
         <v>1095</v>
@@ -15380,14 +15386,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>93</v>
       </c>
       <c r="K335" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M335">
         <v>1095</v>
@@ -15424,14 +15430,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>93</v>
       </c>
       <c r="K336" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>3786</v>
       </c>
       <c r="M336">
         <v>1095</v>
@@ -15468,14 +15474,14 @@
       <c r="I337">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>3</v>
+      <c r="J337" t="s">
+        <v>93</v>
       </c>
       <c r="K337" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>2785</v>
       </c>
       <c r="M337">
         <v>1095</v>
@@ -15512,14 +15518,14 @@
       <c r="I338">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>3</v>
+      <c r="J338" t="s">
+        <v>92</v>
       </c>
       <c r="K338" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>5673</v>
       </c>
       <c r="M338">
         <v>1097</v>
@@ -15556,14 +15562,14 @@
       <c r="I339">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>3</v>
+      <c r="J339" t="s">
+        <v>92</v>
       </c>
       <c r="K339" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>28928</v>
       </c>
       <c r="M339">
         <v>1097</v>
@@ -15600,14 +15606,14 @@
       <c r="I340">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3</v>
+      <c r="J340" t="s">
+        <v>93</v>
       </c>
       <c r="K340" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>4825</v>
       </c>
       <c r="M340">
         <v>1097</v>
@@ -15644,14 +15650,14 @@
       <c r="I341">
         <v>1</v>
       </c>
-      <c r="J341">
-        <v>3</v>
+      <c r="J341" t="s">
+        <v>93</v>
       </c>
       <c r="K341" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>28327</v>
       </c>
       <c r="M341">
         <v>1097</v>
@@ -15688,14 +15694,14 @@
       <c r="I342">
         <v>1</v>
       </c>
-      <c r="J342">
-        <v>3</v>
+      <c r="J342" t="s">
+        <v>93</v>
       </c>
       <c r="K342" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>2894</v>
       </c>
       <c r="M342">
         <v>1097</v>
@@ -15732,14 +15738,14 @@
       <c r="I343">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>3</v>
+      <c r="J343" t="s">
+        <v>93</v>
       </c>
       <c r="K343" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>11851</v>
       </c>
       <c r="M343">
         <v>1097</v>
@@ -15776,14 +15782,14 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>3</v>
+      <c r="J344" t="s">
+        <v>93</v>
       </c>
       <c r="K344" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L344">
-        <v>4</v>
+        <v>13459</v>
       </c>
       <c r="M344">
         <v>1097</v>
@@ -15820,14 +15826,14 @@
       <c r="I345">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>3</v>
+      <c r="J345" t="s">
+        <v>92</v>
       </c>
       <c r="K345" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M345">
         <v>1099</v>
@@ -15864,14 +15870,14 @@
       <c r="I346">
         <v>1</v>
       </c>
-      <c r="J346">
-        <v>3</v>
+      <c r="J346" t="s">
+        <v>92</v>
       </c>
       <c r="K346" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>2439</v>
       </c>
       <c r="M346">
         <v>1099</v>
@@ -15908,14 +15914,14 @@
       <c r="I347">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>3</v>
+      <c r="J347" t="s">
+        <v>93</v>
       </c>
       <c r="K347" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>374</v>
       </c>
       <c r="M347">
         <v>1099</v>
@@ -15952,14 +15958,14 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>3</v>
+      <c r="J348" t="s">
+        <v>93</v>
       </c>
       <c r="K348" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>1967</v>
       </c>
       <c r="M348">
         <v>1099</v>
@@ -15996,14 +16002,14 @@
       <c r="I349">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3</v>
+      <c r="J349" t="s">
+        <v>93</v>
       </c>
       <c r="K349" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L349">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M349">
         <v>1099</v>
@@ -16040,14 +16046,14 @@
       <c r="I350">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>3</v>
+      <c r="J350" t="s">
+        <v>93</v>
       </c>
       <c r="K350" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>597</v>
       </c>
       <c r="M350">
         <v>1099</v>
@@ -16084,14 +16090,14 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>3</v>
+      <c r="J351" t="s">
+        <v>93</v>
       </c>
       <c r="K351" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>659</v>
       </c>
       <c r="M351">
         <v>1099</v>
@@ -16128,14 +16134,14 @@
       <c r="I352">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>3</v>
+      <c r="J352" t="s">
+        <v>92</v>
       </c>
       <c r="K352" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>4267</v>
       </c>
       <c r="M352">
         <v>1101</v>
@@ -16172,14 +16178,14 @@
       <c r="I353">
         <v>1</v>
       </c>
-      <c r="J353">
-        <v>3</v>
+      <c r="J353" t="s">
+        <v>92</v>
       </c>
       <c r="K353" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>28651</v>
       </c>
       <c r="M353">
         <v>1101</v>
@@ -16216,14 +16222,14 @@
       <c r="I354">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>3</v>
+      <c r="J354" t="s">
+        <v>93</v>
       </c>
       <c r="K354" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>3380</v>
       </c>
       <c r="M354">
         <v>1101</v>
@@ -16260,14 +16266,14 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>3</v>
+      <c r="J355" t="s">
+        <v>93</v>
       </c>
       <c r="K355" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L355">
-        <v>4</v>
+        <v>10518</v>
       </c>
       <c r="M355">
         <v>1101</v>
@@ -16304,14 +16310,14 @@
       <c r="I356">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>3</v>
+      <c r="J356" t="s">
+        <v>93</v>
       </c>
       <c r="K356" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L356">
-        <v>4</v>
+        <v>1954</v>
       </c>
       <c r="M356">
         <v>1101</v>
@@ -16348,14 +16354,14 @@
       <c r="I357">
         <v>1</v>
       </c>
-      <c r="J357">
-        <v>3</v>
+      <c r="J357" t="s">
+        <v>93</v>
       </c>
       <c r="K357" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>5571</v>
       </c>
       <c r="M357">
         <v>1101</v>
@@ -16392,14 +16398,14 @@
       <c r="I358">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>3</v>
+      <c r="J358" t="s">
+        <v>93</v>
       </c>
       <c r="K358" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>4701</v>
       </c>
       <c r="M358">
         <v>1101</v>
@@ -16436,14 +16442,14 @@
       <c r="I359">
         <v>1</v>
       </c>
-      <c r="J359">
-        <v>3</v>
+      <c r="J359" t="s">
+        <v>92</v>
       </c>
       <c r="K359" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L359">
-        <v>4</v>
+        <v>1346</v>
       </c>
       <c r="M359">
         <v>1103</v>
@@ -16480,14 +16486,14 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360">
-        <v>3</v>
+      <c r="J360" t="s">
+        <v>92</v>
       </c>
       <c r="K360" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>3898</v>
       </c>
       <c r="M360">
         <v>1103</v>
@@ -16524,14 +16530,14 @@
       <c r="I361">
         <v>1</v>
       </c>
-      <c r="J361">
-        <v>3</v>
+      <c r="J361" t="s">
+        <v>93</v>
       </c>
       <c r="K361" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>2791</v>
       </c>
       <c r="M361">
         <v>1103</v>
@@ -16568,14 +16574,14 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362">
-        <v>3</v>
+      <c r="J362" t="s">
+        <v>93</v>
       </c>
       <c r="K362" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>10910</v>
       </c>
       <c r="M362">
         <v>1103</v>
@@ -16612,14 +16618,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-      <c r="J363">
-        <v>3</v>
+      <c r="J363" t="s">
+        <v>93</v>
       </c>
       <c r="K363" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>1110</v>
       </c>
       <c r="M363">
         <v>1103</v>
@@ -16656,14 +16662,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-      <c r="J364">
-        <v>3</v>
+      <c r="J364" t="s">
+        <v>93</v>
       </c>
       <c r="K364" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>4489</v>
       </c>
       <c r="M364">
         <v>1103</v>
@@ -16700,14 +16706,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-      <c r="J365">
-        <v>3</v>
+      <c r="J365" t="s">
+        <v>93</v>
       </c>
       <c r="K365" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>4829</v>
       </c>
       <c r="M365">
         <v>1103</v>
@@ -16744,14 +16750,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-      <c r="J366">
-        <v>3</v>
+      <c r="J366" t="s">
+        <v>92</v>
       </c>
       <c r="K366" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L366">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="M366">
         <v>1105</v>
@@ -16788,14 +16794,14 @@
       <c r="I367">
         <v>1</v>
       </c>
-      <c r="J367">
-        <v>3</v>
+      <c r="J367" t="s">
+        <v>92</v>
       </c>
       <c r="K367" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>2576</v>
       </c>
       <c r="M367">
         <v>1105</v>
@@ -16832,14 +16838,14 @@
       <c r="I368">
         <v>1</v>
       </c>
-      <c r="J368">
-        <v>3</v>
+      <c r="J368" t="s">
+        <v>93</v>
       </c>
       <c r="K368" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M368">
         <v>1105</v>
@@ -16876,14 +16882,14 @@
       <c r="I369">
         <v>1</v>
       </c>
-      <c r="J369">
-        <v>3</v>
+      <c r="J369" t="s">
+        <v>93</v>
       </c>
       <c r="K369" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="M369">
         <v>1105</v>
@@ -16920,14 +16926,14 @@
       <c r="I370">
         <v>1</v>
       </c>
-      <c r="J370">
+      <c r="J370" t="s">
+        <v>93</v>
+      </c>
+      <c r="K370" t="s">
+        <v>94</v>
+      </c>
+      <c r="L370">
         <v>3</v>
-      </c>
-      <c r="K370" t="s">
-        <v>92</v>
-      </c>
-      <c r="L370">
-        <v>4</v>
       </c>
       <c r="M370">
         <v>1105</v>
@@ -16964,14 +16970,14 @@
       <c r="I371">
         <v>1</v>
       </c>
-      <c r="J371">
-        <v>3</v>
+      <c r="J371" t="s">
+        <v>93</v>
       </c>
       <c r="K371" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M371">
         <v>1105</v>
@@ -17008,14 +17014,14 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372">
-        <v>3</v>
+      <c r="J372" t="s">
+        <v>93</v>
       </c>
       <c r="K372" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M372">
         <v>1105</v>
@@ -17052,14 +17058,14 @@
       <c r="I373">
         <v>1</v>
       </c>
-      <c r="J373">
-        <v>3</v>
+      <c r="J373" t="s">
+        <v>92</v>
       </c>
       <c r="K373" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="M373">
         <v>1107</v>
@@ -17096,14 +17102,14 @@
       <c r="I374">
         <v>1</v>
       </c>
-      <c r="J374">
-        <v>3</v>
+      <c r="J374" t="s">
+        <v>92</v>
       </c>
       <c r="K374" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>2327</v>
       </c>
       <c r="M374">
         <v>1107</v>
@@ -17140,14 +17146,14 @@
       <c r="I375">
         <v>1</v>
       </c>
-      <c r="J375">
-        <v>3</v>
+      <c r="J375" t="s">
+        <v>93</v>
       </c>
       <c r="K375" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="M375">
         <v>1107</v>
@@ -17184,14 +17190,14 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376">
-        <v>3</v>
+      <c r="J376" t="s">
+        <v>93</v>
       </c>
       <c r="K376" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>1125</v>
       </c>
       <c r="M376">
         <v>1107</v>
@@ -17228,14 +17234,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377">
-        <v>3</v>
+      <c r="J377" t="s">
+        <v>93</v>
       </c>
       <c r="K377" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M377">
         <v>1107</v>
@@ -17272,14 +17278,14 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378">
-        <v>3</v>
+      <c r="J378" t="s">
+        <v>93</v>
       </c>
       <c r="K378" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="M378">
         <v>1107</v>
@@ -17316,14 +17322,14 @@
       <c r="I379">
         <v>1</v>
       </c>
-      <c r="J379">
-        <v>3</v>
+      <c r="J379" t="s">
+        <v>93</v>
       </c>
       <c r="K379" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>659</v>
       </c>
       <c r="M379">
         <v>1107</v>
@@ -17360,14 +17366,14 @@
       <c r="I380">
         <v>1</v>
       </c>
-      <c r="J380">
-        <v>3</v>
+      <c r="J380" t="s">
+        <v>92</v>
       </c>
       <c r="K380" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>380</v>
       </c>
       <c r="M380">
         <v>1109</v>
@@ -17404,14 +17410,14 @@
       <c r="I381">
         <v>1</v>
       </c>
-      <c r="J381">
-        <v>3</v>
+      <c r="J381" t="s">
+        <v>92</v>
       </c>
       <c r="K381" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>2184</v>
       </c>
       <c r="M381">
         <v>1109</v>
@@ -17448,14 +17454,14 @@
       <c r="I382">
         <v>1</v>
       </c>
-      <c r="J382">
-        <v>3</v>
+      <c r="J382" t="s">
+        <v>93</v>
       </c>
       <c r="K382" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="M382">
         <v>1109</v>
@@ -17492,14 +17498,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383">
-        <v>3</v>
+      <c r="J383" t="s">
+        <v>93</v>
       </c>
       <c r="K383" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>2494</v>
       </c>
       <c r="M383">
         <v>1109</v>
@@ -17536,14 +17542,14 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384">
-        <v>3</v>
+      <c r="J384" t="s">
+        <v>93</v>
       </c>
       <c r="K384" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M384">
         <v>1109</v>
@@ -17580,14 +17586,14 @@
       <c r="I385">
         <v>1</v>
       </c>
-      <c r="J385">
-        <v>3</v>
+      <c r="J385" t="s">
+        <v>93</v>
       </c>
       <c r="K385" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L385">
-        <v>4</v>
+        <v>799</v>
       </c>
       <c r="M385">
         <v>1109</v>
@@ -17624,14 +17630,14 @@
       <c r="I386">
         <v>1</v>
       </c>
-      <c r="J386">
-        <v>3</v>
+      <c r="J386" t="s">
+        <v>93</v>
       </c>
       <c r="K386" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L386">
-        <v>4</v>
+        <v>1093</v>
       </c>
       <c r="M386">
         <v>1109</v>
@@ -17668,14 +17674,14 @@
       <c r="I387">
         <v>1</v>
       </c>
-      <c r="J387">
-        <v>3</v>
+      <c r="J387" t="s">
+        <v>92</v>
       </c>
       <c r="K387" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="M387">
         <v>1111</v>
@@ -17712,14 +17718,14 @@
       <c r="I388">
         <v>1</v>
       </c>
-      <c r="J388">
-        <v>3</v>
+      <c r="J388" t="s">
+        <v>92</v>
       </c>
       <c r="K388" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>1237</v>
       </c>
       <c r="M388">
         <v>1111</v>
@@ -17756,14 +17762,14 @@
       <c r="I389">
         <v>1</v>
       </c>
-      <c r="J389">
-        <v>3</v>
+      <c r="J389" t="s">
+        <v>93</v>
       </c>
       <c r="K389" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L389">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="M389">
         <v>1111</v>
@@ -17800,14 +17806,14 @@
       <c r="I390">
         <v>1</v>
       </c>
-      <c r="J390">
-        <v>3</v>
+      <c r="J390" t="s">
+        <v>93</v>
       </c>
       <c r="K390" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L390">
-        <v>4</v>
+        <v>2353</v>
       </c>
       <c r="M390">
         <v>1111</v>
@@ -17844,14 +17850,14 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391">
-        <v>3</v>
+      <c r="J391" t="s">
+        <v>93</v>
       </c>
       <c r="K391" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L391">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="M391">
         <v>1111</v>
@@ -17888,14 +17894,14 @@
       <c r="I392">
         <v>1</v>
       </c>
-      <c r="J392">
-        <v>3</v>
+      <c r="J392" t="s">
+        <v>93</v>
       </c>
       <c r="K392" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L392">
-        <v>4</v>
+        <v>585</v>
       </c>
       <c r="M392">
         <v>1111</v>
@@ -17932,14 +17938,14 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393">
-        <v>3</v>
+      <c r="J393" t="s">
+        <v>93</v>
       </c>
       <c r="K393" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L393">
-        <v>4</v>
+        <v>943</v>
       </c>
       <c r="M393">
         <v>1111</v>
@@ -17976,14 +17982,14 @@
       <c r="I394">
         <v>1</v>
       </c>
-      <c r="J394">
-        <v>3</v>
+      <c r="J394" t="s">
+        <v>92</v>
       </c>
       <c r="K394" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>989</v>
       </c>
       <c r="M394">
         <v>1113</v>
@@ -18020,14 +18026,14 @@
       <c r="I395">
         <v>1</v>
       </c>
-      <c r="J395">
-        <v>3</v>
+      <c r="J395" t="s">
+        <v>92</v>
       </c>
       <c r="K395" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L395">
-        <v>4</v>
+        <v>4382</v>
       </c>
       <c r="M395">
         <v>1113</v>
@@ -18064,14 +18070,14 @@
       <c r="I396">
         <v>1</v>
       </c>
-      <c r="J396">
-        <v>3</v>
+      <c r="J396" t="s">
+        <v>93</v>
       </c>
       <c r="K396" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L396">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="M396">
         <v>1113</v>
@@ -18108,14 +18114,14 @@
       <c r="I397">
         <v>1</v>
       </c>
-      <c r="J397">
-        <v>3</v>
+      <c r="J397" t="s">
+        <v>93</v>
       </c>
       <c r="K397" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L397">
-        <v>4</v>
+        <v>1785</v>
       </c>
       <c r="M397">
         <v>1113</v>
@@ -18152,14 +18158,14 @@
       <c r="I398">
         <v>1</v>
       </c>
-      <c r="J398">
-        <v>3</v>
+      <c r="J398" t="s">
+        <v>93</v>
       </c>
       <c r="K398" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L398">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M398">
         <v>1113</v>
@@ -18196,14 +18202,14 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399">
-        <v>3</v>
+      <c r="J399" t="s">
+        <v>93</v>
       </c>
       <c r="K399" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L399">
-        <v>4</v>
+        <v>464</v>
       </c>
       <c r="M399">
         <v>1113</v>
@@ -18240,14 +18246,14 @@
       <c r="I400">
         <v>1</v>
       </c>
-      <c r="J400">
-        <v>3</v>
+      <c r="J400" t="s">
+        <v>93</v>
       </c>
       <c r="K400" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>1017</v>
       </c>
       <c r="M400">
         <v>1113</v>
@@ -18284,14 +18290,14 @@
       <c r="I401">
         <v>1</v>
       </c>
-      <c r="J401">
-        <v>3</v>
+      <c r="J401" t="s">
+        <v>92</v>
       </c>
       <c r="K401" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L401">
-        <v>4</v>
+        <v>3756</v>
       </c>
       <c r="M401">
         <v>1117</v>
@@ -18328,14 +18334,14 @@
       <c r="I402">
         <v>1</v>
       </c>
-      <c r="J402">
-        <v>3</v>
+      <c r="J402" t="s">
+        <v>92</v>
       </c>
       <c r="K402" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L402">
-        <v>4</v>
+        <v>6658</v>
       </c>
       <c r="M402">
         <v>1117</v>
@@ -18372,14 +18378,14 @@
       <c r="I403">
         <v>1</v>
       </c>
-      <c r="J403">
-        <v>3</v>
+      <c r="J403" t="s">
+        <v>93</v>
       </c>
       <c r="K403" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L403">
-        <v>4</v>
+        <v>5006</v>
       </c>
       <c r="M403">
         <v>1117</v>
@@ -18416,14 +18422,14 @@
       <c r="I404">
         <v>1</v>
       </c>
-      <c r="J404">
-        <v>3</v>
+      <c r="J404" t="s">
+        <v>93</v>
       </c>
       <c r="K404" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L404">
-        <v>4</v>
+        <v>18261</v>
       </c>
       <c r="M404">
         <v>1117</v>
@@ -18460,14 +18466,14 @@
       <c r="I405">
         <v>1</v>
       </c>
-      <c r="J405">
-        <v>3</v>
+      <c r="J405" t="s">
+        <v>93</v>
       </c>
       <c r="K405" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L405">
-        <v>4</v>
+        <v>2680</v>
       </c>
       <c r="M405">
         <v>1117</v>
@@ -18504,14 +18510,14 @@
       <c r="I406">
         <v>1</v>
       </c>
-      <c r="J406">
-        <v>3</v>
+      <c r="J406" t="s">
+        <v>93</v>
       </c>
       <c r="K406" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L406">
-        <v>4</v>
+        <v>12214</v>
       </c>
       <c r="M406">
         <v>1117</v>
@@ -18548,14 +18554,14 @@
       <c r="I407">
         <v>1</v>
       </c>
-      <c r="J407">
-        <v>3</v>
+      <c r="J407" t="s">
+        <v>93</v>
       </c>
       <c r="K407" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>14006</v>
       </c>
       <c r="M407">
         <v>1117</v>
@@ -18592,14 +18598,14 @@
       <c r="I408">
         <v>1</v>
       </c>
-      <c r="J408">
-        <v>3</v>
+      <c r="J408" t="s">
+        <v>92</v>
       </c>
       <c r="K408" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L408">
-        <v>4</v>
+        <v>746</v>
       </c>
       <c r="M408">
         <v>1115</v>
@@ -18636,14 +18642,14 @@
       <c r="I409">
         <v>1</v>
       </c>
-      <c r="J409">
-        <v>3</v>
+      <c r="J409" t="s">
+        <v>92</v>
       </c>
       <c r="K409" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L409">
-        <v>4</v>
+        <v>1809</v>
       </c>
       <c r="M409">
         <v>1115</v>
@@ -18680,14 +18686,14 @@
       <c r="I410">
         <v>1</v>
       </c>
-      <c r="J410">
-        <v>3</v>
+      <c r="J410" t="s">
+        <v>93</v>
       </c>
       <c r="K410" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L410">
-        <v>4</v>
+        <v>2094</v>
       </c>
       <c r="M410">
         <v>1115</v>
@@ -18724,14 +18730,14 @@
       <c r="I411">
         <v>1</v>
       </c>
-      <c r="J411">
-        <v>3</v>
+      <c r="J411" t="s">
+        <v>93</v>
       </c>
       <c r="K411" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L411">
-        <v>4</v>
+        <v>8597</v>
       </c>
       <c r="M411">
         <v>1115</v>
@@ -18768,14 +18774,14 @@
       <c r="I412">
         <v>1</v>
       </c>
-      <c r="J412">
-        <v>3</v>
+      <c r="J412" t="s">
+        <v>93</v>
       </c>
       <c r="K412" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="M412">
         <v>1115</v>
@@ -18812,14 +18818,14 @@
       <c r="I413">
         <v>1</v>
       </c>
-      <c r="J413">
-        <v>3</v>
+      <c r="J413" t="s">
+        <v>93</v>
       </c>
       <c r="K413" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L413">
-        <v>4</v>
+        <v>2587</v>
       </c>
       <c r="M413">
         <v>1115</v>
@@ -18856,14 +18862,14 @@
       <c r="I414">
         <v>1</v>
       </c>
-      <c r="J414">
-        <v>3</v>
+      <c r="J414" t="s">
+        <v>93</v>
       </c>
       <c r="K414" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L414">
-        <v>4</v>
+        <v>5179</v>
       </c>
       <c r="M414">
         <v>1115</v>
@@ -18900,14 +18906,14 @@
       <c r="I415">
         <v>1</v>
       </c>
-      <c r="J415">
-        <v>3</v>
+      <c r="J415" t="s">
+        <v>92</v>
       </c>
       <c r="K415" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L415">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="M415">
         <v>1119</v>
@@ -18944,14 +18950,14 @@
       <c r="I416">
         <v>1</v>
       </c>
-      <c r="J416">
-        <v>3</v>
+      <c r="J416" t="s">
+        <v>92</v>
       </c>
       <c r="K416" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L416">
-        <v>4</v>
+        <v>2988</v>
       </c>
       <c r="M416">
         <v>1119</v>
@@ -18988,14 +18994,14 @@
       <c r="I417">
         <v>1</v>
       </c>
-      <c r="J417">
-        <v>3</v>
+      <c r="J417" t="s">
+        <v>93</v>
       </c>
       <c r="K417" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L417">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M417">
         <v>1119</v>
@@ -19032,14 +19038,14 @@
       <c r="I418">
         <v>1</v>
       </c>
-      <c r="J418">
-        <v>3</v>
+      <c r="J418" t="s">
+        <v>93</v>
       </c>
       <c r="K418" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L418">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M418">
         <v>1119</v>
@@ -19076,14 +19082,14 @@
       <c r="I419">
         <v>1</v>
       </c>
-      <c r="J419">
-        <v>3</v>
+      <c r="J419" t="s">
+        <v>93</v>
       </c>
       <c r="K419" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L419">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M419">
         <v>1119</v>
@@ -19120,14 +19126,14 @@
       <c r="I420">
         <v>1</v>
       </c>
-      <c r="J420">
-        <v>3</v>
+      <c r="J420" t="s">
+        <v>93</v>
       </c>
       <c r="K420" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L420">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M420">
         <v>1119</v>
@@ -19164,14 +19170,14 @@
       <c r="I421">
         <v>1</v>
       </c>
-      <c r="J421">
-        <v>3</v>
+      <c r="J421" t="s">
+        <v>93</v>
       </c>
       <c r="K421" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L421">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M421">
         <v>1119</v>
@@ -19208,14 +19214,14 @@
       <c r="I422">
         <v>1</v>
       </c>
-      <c r="J422">
-        <v>3</v>
+      <c r="J422" t="s">
+        <v>92</v>
       </c>
       <c r="K422" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L422">
-        <v>4</v>
+        <v>783</v>
       </c>
       <c r="M422">
         <v>1121</v>
@@ -19252,14 +19258,14 @@
       <c r="I423">
         <v>1</v>
       </c>
-      <c r="J423">
-        <v>3</v>
+      <c r="J423" t="s">
+        <v>92</v>
       </c>
       <c r="K423" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L423">
-        <v>4</v>
+        <v>5562</v>
       </c>
       <c r="M423">
         <v>1121</v>
@@ -19296,14 +19302,14 @@
       <c r="I424">
         <v>1</v>
       </c>
-      <c r="J424">
-        <v>3</v>
+      <c r="J424" t="s">
+        <v>93</v>
       </c>
       <c r="K424" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L424">
-        <v>4</v>
+        <v>1180</v>
       </c>
       <c r="M424">
         <v>1121</v>
@@ -19340,14 +19346,14 @@
       <c r="I425">
         <v>1</v>
       </c>
-      <c r="J425">
-        <v>3</v>
+      <c r="J425" t="s">
+        <v>93</v>
       </c>
       <c r="K425" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>6305</v>
       </c>
       <c r="M425">
         <v>1121</v>
@@ -19384,14 +19390,14 @@
       <c r="I426">
         <v>1</v>
       </c>
-      <c r="J426">
-        <v>3</v>
+      <c r="J426" t="s">
+        <v>93</v>
       </c>
       <c r="K426" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="M426">
         <v>1121</v>
@@ -19428,14 +19434,14 @@
       <c r="I427">
         <v>1</v>
       </c>
-      <c r="J427">
-        <v>3</v>
+      <c r="J427" t="s">
+        <v>93</v>
       </c>
       <c r="K427" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L427">
-        <v>4</v>
+        <v>1677</v>
       </c>
       <c r="M427">
         <v>1121</v>
@@ -19472,14 +19478,14 @@
       <c r="I428">
         <v>1</v>
       </c>
-      <c r="J428">
-        <v>3</v>
+      <c r="J428" t="s">
+        <v>93</v>
       </c>
       <c r="K428" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L428">
-        <v>4</v>
+        <v>2469</v>
       </c>
       <c r="M428">
         <v>1121</v>
@@ -19516,14 +19522,14 @@
       <c r="I429">
         <v>1</v>
       </c>
-      <c r="J429">
-        <v>3</v>
+      <c r="J429" t="s">
+        <v>92</v>
       </c>
       <c r="K429" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L429">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="M429">
         <v>1123</v>
@@ -19560,14 +19566,14 @@
       <c r="I430">
         <v>1</v>
       </c>
-      <c r="J430">
-        <v>3</v>
+      <c r="J430" t="s">
+        <v>92</v>
       </c>
       <c r="K430" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L430">
-        <v>4</v>
+        <v>2659</v>
       </c>
       <c r="M430">
         <v>1123</v>
@@ -19604,14 +19610,14 @@
       <c r="I431">
         <v>1</v>
       </c>
-      <c r="J431">
-        <v>3</v>
+      <c r="J431" t="s">
+        <v>93</v>
       </c>
       <c r="K431" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L431">
-        <v>4</v>
+        <v>1007</v>
       </c>
       <c r="M431">
         <v>1123</v>
@@ -19648,14 +19654,14 @@
       <c r="I432">
         <v>1</v>
       </c>
-      <c r="J432">
-        <v>3</v>
+      <c r="J432" t="s">
+        <v>93</v>
       </c>
       <c r="K432" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>4659</v>
       </c>
       <c r="M432">
         <v>1123</v>
@@ -19692,14 +19698,14 @@
       <c r="I433">
         <v>1</v>
       </c>
-      <c r="J433">
-        <v>3</v>
+      <c r="J433" t="s">
+        <v>93</v>
       </c>
       <c r="K433" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L433">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M433">
         <v>1123</v>
@@ -19736,14 +19742,14 @@
       <c r="I434">
         <v>1</v>
       </c>
-      <c r="J434">
-        <v>3</v>
+      <c r="J434" t="s">
+        <v>93</v>
       </c>
       <c r="K434" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L434">
-        <v>4</v>
+        <v>1290</v>
       </c>
       <c r="M434">
         <v>1123</v>
@@ -19780,14 +19786,14 @@
       <c r="I435">
         <v>1</v>
       </c>
-      <c r="J435">
-        <v>3</v>
+      <c r="J435" t="s">
+        <v>93</v>
       </c>
       <c r="K435" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L435">
-        <v>4</v>
+        <v>1326</v>
       </c>
       <c r="M435">
         <v>1123</v>
@@ -19824,14 +19830,14 @@
       <c r="I436">
         <v>1</v>
       </c>
-      <c r="J436">
-        <v>3</v>
+      <c r="J436" t="s">
+        <v>92</v>
       </c>
       <c r="K436" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L436">
-        <v>4</v>
+        <v>3445</v>
       </c>
       <c r="M436">
         <v>1125</v>
@@ -19868,14 +19874,14 @@
       <c r="I437">
         <v>1</v>
       </c>
-      <c r="J437">
-        <v>3</v>
+      <c r="J437" t="s">
+        <v>92</v>
       </c>
       <c r="K437" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L437">
-        <v>4</v>
+        <v>12137</v>
       </c>
       <c r="M437">
         <v>1125</v>
@@ -19912,14 +19918,14 @@
       <c r="I438">
         <v>1</v>
       </c>
-      <c r="J438">
-        <v>3</v>
+      <c r="J438" t="s">
+        <v>93</v>
       </c>
       <c r="K438" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L438">
-        <v>4</v>
+        <v>3311</v>
       </c>
       <c r="M438">
         <v>1125</v>
@@ -19956,14 +19962,14 @@
       <c r="I439">
         <v>1</v>
       </c>
-      <c r="J439">
-        <v>3</v>
+      <c r="J439" t="s">
+        <v>93</v>
       </c>
       <c r="K439" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L439">
-        <v>4</v>
+        <v>11653</v>
       </c>
       <c r="M439">
         <v>1125</v>
@@ -20000,14 +20006,14 @@
       <c r="I440">
         <v>1</v>
       </c>
-      <c r="J440">
-        <v>3</v>
+      <c r="J440" t="s">
+        <v>93</v>
       </c>
       <c r="K440" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L440">
-        <v>4</v>
+        <v>1382</v>
       </c>
       <c r="M440">
         <v>1125</v>
@@ -20044,14 +20050,14 @@
       <c r="I441">
         <v>1</v>
       </c>
-      <c r="J441">
-        <v>3</v>
+      <c r="J441" t="s">
+        <v>93</v>
       </c>
       <c r="K441" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L441">
-        <v>4</v>
+        <v>6334</v>
       </c>
       <c r="M441">
         <v>1125</v>
@@ -20088,14 +20094,14 @@
       <c r="I442">
         <v>1</v>
       </c>
-      <c r="J442">
-        <v>3</v>
+      <c r="J442" t="s">
+        <v>93</v>
       </c>
       <c r="K442" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L442">
-        <v>4</v>
+        <v>7790</v>
       </c>
       <c r="M442">
         <v>1125</v>
@@ -20132,14 +20138,14 @@
       <c r="I443">
         <v>1</v>
       </c>
-      <c r="J443">
-        <v>3</v>
+      <c r="J443" t="s">
+        <v>92</v>
       </c>
       <c r="K443" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L443">
-        <v>4</v>
+        <v>728</v>
       </c>
       <c r="M443">
         <v>1127</v>
@@ -20176,14 +20182,14 @@
       <c r="I444">
         <v>1</v>
       </c>
-      <c r="J444">
-        <v>3</v>
+      <c r="J444" t="s">
+        <v>92</v>
       </c>
       <c r="K444" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L444">
-        <v>4</v>
+        <v>1773</v>
       </c>
       <c r="M444">
         <v>1127</v>
@@ -20220,14 +20226,14 @@
       <c r="I445">
         <v>1</v>
       </c>
-      <c r="J445">
-        <v>3</v>
+      <c r="J445" t="s">
+        <v>93</v>
       </c>
       <c r="K445" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L445">
-        <v>4</v>
+        <v>1370</v>
       </c>
       <c r="M445">
         <v>1127</v>
@@ -20264,14 +20270,14 @@
       <c r="I446">
         <v>1</v>
       </c>
-      <c r="J446">
-        <v>3</v>
+      <c r="J446" t="s">
+        <v>93</v>
       </c>
       <c r="K446" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L446">
-        <v>4</v>
+        <v>8395</v>
       </c>
       <c r="M446">
         <v>1127</v>
@@ -20308,14 +20314,14 @@
       <c r="I447">
         <v>1</v>
       </c>
-      <c r="J447">
-        <v>3</v>
+      <c r="J447" t="s">
+        <v>93</v>
       </c>
       <c r="K447" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L447">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="M447">
         <v>1127</v>
@@ -20352,14 +20358,14 @@
       <c r="I448">
         <v>1</v>
       </c>
-      <c r="J448">
-        <v>3</v>
+      <c r="J448" t="s">
+        <v>93</v>
       </c>
       <c r="K448" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L448">
-        <v>4</v>
+        <v>1653</v>
       </c>
       <c r="M448">
         <v>1127</v>
@@ -20396,14 +20402,14 @@
       <c r="I449">
         <v>1</v>
       </c>
-      <c r="J449">
-        <v>3</v>
+      <c r="J449" t="s">
+        <v>93</v>
       </c>
       <c r="K449" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L449">
-        <v>4</v>
+        <v>3107</v>
       </c>
       <c r="M449">
         <v>1127</v>
@@ -20440,14 +20446,14 @@
       <c r="I450">
         <v>1</v>
       </c>
-      <c r="J450">
-        <v>3</v>
+      <c r="J450" t="s">
+        <v>92</v>
       </c>
       <c r="K450" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L450">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="M450">
         <v>1129</v>
@@ -20484,14 +20490,14 @@
       <c r="I451">
         <v>1</v>
       </c>
-      <c r="J451">
-        <v>3</v>
+      <c r="J451" t="s">
+        <v>92</v>
       </c>
       <c r="K451" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L451">
-        <v>4</v>
+        <v>1512</v>
       </c>
       <c r="M451">
         <v>1129</v>
@@ -20528,14 +20534,14 @@
       <c r="I452">
         <v>1</v>
       </c>
-      <c r="J452">
-        <v>3</v>
+      <c r="J452" t="s">
+        <v>93</v>
       </c>
       <c r="K452" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L452">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="M452">
         <v>1129</v>
@@ -20572,14 +20578,14 @@
       <c r="I453">
         <v>1</v>
       </c>
-      <c r="J453">
-        <v>3</v>
+      <c r="J453" t="s">
+        <v>93</v>
       </c>
       <c r="K453" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L453">
-        <v>4</v>
+        <v>1270</v>
       </c>
       <c r="M453">
         <v>1129</v>
@@ -20616,14 +20622,14 @@
       <c r="I454">
         <v>1</v>
       </c>
-      <c r="J454">
-        <v>3</v>
+      <c r="J454" t="s">
+        <v>93</v>
       </c>
       <c r="K454" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M454">
         <v>1129</v>
@@ -20660,14 +20666,14 @@
       <c r="I455">
         <v>1</v>
       </c>
-      <c r="J455">
-        <v>3</v>
+      <c r="J455" t="s">
+        <v>93</v>
       </c>
       <c r="K455" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L455">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="M455">
         <v>1129</v>
@@ -20704,14 +20710,14 @@
       <c r="I456">
         <v>1</v>
       </c>
-      <c r="J456">
-        <v>3</v>
+      <c r="J456" t="s">
+        <v>93</v>
       </c>
       <c r="K456" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>517</v>
       </c>
       <c r="M456">
         <v>1129</v>
@@ -20748,14 +20754,14 @@
       <c r="I457">
         <v>1</v>
       </c>
-      <c r="J457">
-        <v>3</v>
+      <c r="J457" t="s">
+        <v>92</v>
       </c>
       <c r="K457" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L457">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="M457">
         <v>1131</v>
@@ -20792,14 +20798,14 @@
       <c r="I458">
         <v>1</v>
       </c>
-      <c r="J458">
-        <v>3</v>
+      <c r="J458" t="s">
+        <v>92</v>
       </c>
       <c r="K458" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L458">
-        <v>4</v>
+        <v>3338</v>
       </c>
       <c r="M458">
         <v>1131</v>
@@ -20836,14 +20842,14 @@
       <c r="I459">
         <v>1</v>
       </c>
-      <c r="J459">
-        <v>3</v>
+      <c r="J459" t="s">
+        <v>93</v>
       </c>
       <c r="K459" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L459">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M459">
         <v>1131</v>
@@ -20880,14 +20886,14 @@
       <c r="I460">
         <v>1</v>
       </c>
-      <c r="J460">
-        <v>3</v>
+      <c r="J460" t="s">
+        <v>93</v>
       </c>
       <c r="K460" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L460">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="M460">
         <v>1131</v>
@@ -20924,14 +20930,14 @@
       <c r="I461">
         <v>1</v>
       </c>
-      <c r="J461">
-        <v>3</v>
+      <c r="J461" t="s">
+        <v>93</v>
       </c>
       <c r="K461" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L461">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M461">
         <v>1131</v>
@@ -20968,14 +20974,14 @@
       <c r="I462">
         <v>1</v>
       </c>
-      <c r="J462">
-        <v>3</v>
+      <c r="J462" t="s">
+        <v>93</v>
       </c>
       <c r="K462" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L462">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M462">
         <v>1131</v>
@@ -21012,14 +21018,14 @@
       <c r="I463">
         <v>1</v>
       </c>
-      <c r="J463">
-        <v>3</v>
+      <c r="J463" t="s">
+        <v>93</v>
       </c>
       <c r="K463" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L463">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="M463">
         <v>1131</v>
@@ -21056,14 +21062,14 @@
       <c r="I464">
         <v>1</v>
       </c>
-      <c r="J464">
-        <v>3</v>
+      <c r="J464" t="s">
+        <v>92</v>
       </c>
       <c r="K464" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L464">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="M464">
         <v>1133</v>
@@ -21100,14 +21106,14 @@
       <c r="I465">
         <v>1</v>
       </c>
-      <c r="J465">
-        <v>3</v>
+      <c r="J465" t="s">
+        <v>92</v>
       </c>
       <c r="K465" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L465">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="M465">
         <v>1133</v>
@@ -21144,14 +21150,14 @@
       <c r="I466">
         <v>1</v>
       </c>
-      <c r="J466">
-        <v>3</v>
+      <c r="J466" t="s">
+        <v>93</v>
       </c>
       <c r="K466" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L466">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="M466">
         <v>1133</v>
@@ -21188,14 +21194,14 @@
       <c r="I467">
         <v>1</v>
       </c>
-      <c r="J467">
-        <v>3</v>
+      <c r="J467" t="s">
+        <v>93</v>
       </c>
       <c r="K467" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L467">
-        <v>4</v>
+        <v>3353</v>
       </c>
       <c r="M467">
         <v>1133</v>
@@ -21232,14 +21238,14 @@
       <c r="I468">
         <v>1</v>
       </c>
-      <c r="J468">
-        <v>3</v>
+      <c r="J468" t="s">
+        <v>93</v>
       </c>
       <c r="K468" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L468">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M468">
         <v>1133</v>
@@ -21276,14 +21282,14 @@
       <c r="I469">
         <v>1</v>
       </c>
-      <c r="J469">
-        <v>3</v>
+      <c r="J469" t="s">
+        <v>93</v>
       </c>
       <c r="K469" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L469">
-        <v>4</v>
+        <v>709</v>
       </c>
       <c r="M469">
         <v>1133</v>
@@ -21320,14 +21326,14 @@
       <c r="I470">
         <v>1</v>
       </c>
-      <c r="J470">
-        <v>3</v>
+      <c r="J470" t="s">
+        <v>93</v>
       </c>
       <c r="K470" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L470">
-        <v>4</v>
+        <v>1077</v>
       </c>
       <c r="M470">
         <v>1133</v>
